--- a/src/test/resources/Locator.xlsx
+++ b/src/test/resources/Locator.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
-    <sheet name="MainAty" sheetId="1" r:id="rId1"/>
-    <sheet name="HomeAty" sheetId="2" r:id="rId2"/>
-    <sheet name="LoginAty" sheetId="5" r:id="rId3"/>
-    <sheet name="WelcomeAty" sheetId="3" r:id="rId4"/>
+    <sheet name="WelcomeAty" sheetId="3" r:id="rId1"/>
+    <sheet name="MainAty" sheetId="1" r:id="rId2"/>
+    <sheet name="UserHomeAty" sheetId="2" r:id="rId3"/>
+    <sheet name="LoginAty" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -614,6 +614,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -891,12 +906,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -952,7 +967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1041,19 +1056,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/resources/Locator.xlsx
+++ b/src/test/resources/Locator.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\AppTest\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IdeaProJect\AppTest\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7776" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WelcomeAty" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -163,11 +163,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>首页Tab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水产Tab</t>
+    <t>android.support.v7.app.ActionBar$Tab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>className</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.benlailife.activity:id/tvCenterLogin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.benlailife.activity:id/rb_login_password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码登录btn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.benlailife.activity:id/btn_password_login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.benlailife.activity:id/tvCenterSetting</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -175,46 +203,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>android.support.v7.app.ActionBar$Tab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>className</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.android.benlailife.activity:id/tvCenterLogin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.android.benlailife.activity:id/rb_login_password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码登录btn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.android.benlailife.activity:id/btn_password_login</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.android.benlailife.activity:id/tvCenterSetting</t>
+    <t>Tab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.benlailife.activity:id/img_tab_center</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -616,11 +616,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -632,18 +632,18 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="A4" sqref="A4:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="65.625" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="65.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -657,7 +657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -671,7 +671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -685,7 +685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -699,7 +699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -713,7 +713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -727,7 +727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -741,7 +741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -755,7 +755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
@@ -769,7 +769,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -797,7 +797,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -811,26 +811,26 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="C13" s="4">
         <v>3</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C14" s="4">
         <v>3</v>
@@ -839,61 +839,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -908,18 +908,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="58.5" customWidth="1"/>
+    <col min="2" max="2" width="58.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -933,12 +933,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" s="4">
         <v>6</v>
@@ -947,18 +947,88 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="4">
         <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -975,14 +1045,14 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="58.25" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="58.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -996,12 +1066,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="4">
         <v>3</v>
@@ -1010,7 +1080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1024,7 +1094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1038,12 +1108,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="4">
         <v>3</v>

--- a/src/test/resources/Locator.xlsx
+++ b/src/test/resources/Locator.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IdeaProJect\AppTest\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\AppTest\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7776" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WelcomeAty" sheetId="3" r:id="rId1"/>
     <sheet name="MainAty" sheetId="1" r:id="rId2"/>
-    <sheet name="UserHomeAty" sheetId="2" r:id="rId3"/>
-    <sheet name="LoginAty" sheetId="5" r:id="rId4"/>
+    <sheet name="CityAty" sheetId="6" r:id="rId3"/>
+    <sheet name="UserHomeAty" sheetId="2" r:id="rId4"/>
+    <sheet name="LoginAty" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="82">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -208,13 +209,130 @@
   </si>
   <si>
     <t>com.android.benlailife.activity:id/img_tab_center</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前城市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.benlailife.activity:id/tvNavigationBarTitle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索城市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.benlailife.activity:id/site_search_edt</t>
+  </si>
+  <si>
+    <t>定位城市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.LinearLayout[1]/android.widget.GridView[1]/android.widget.TextView</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>com.android.benlailife.activity:id/ivNavigationBarLeft</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>离开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.benlailife.activity:id/site_choose_location_city</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='北京']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='上海']</t>
+  </si>
+  <si>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='广州']</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='深圳']</t>
+  </si>
+  <si>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='南京']</t>
+  </si>
+  <si>
+    <t>杭州</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='杭州']</t>
+  </si>
+  <si>
+    <t>天津</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='天津']</t>
+  </si>
+  <si>
+    <t>苏州</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='苏州']</t>
+  </si>
+  <si>
+    <t>无锡</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='无锡']</t>
+  </si>
+  <si>
+    <t>佛山</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='佛山']</t>
+  </si>
+  <si>
+    <t>东莞</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='东莞']</t>
+  </si>
+  <si>
+    <t>宁波</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='宁波']</t>
+  </si>
+  <si>
+    <t>最近访问城市</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -261,7 +379,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +389,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,7 +429,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -332,6 +456,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -620,7 +750,7 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -632,18 +762,18 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="2" width="65.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="65.625" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -657,7 +787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -671,7 +801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -685,7 +815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -699,7 +829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -713,7 +843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -727,7 +857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -741,7 +871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -755,7 +885,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
@@ -769,7 +899,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
@@ -783,7 +913,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -797,7 +927,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -811,7 +941,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>45</v>
       </c>
@@ -825,7 +955,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
@@ -839,61 +969,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -908,18 +1038,293 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="102.25" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="58.44140625" customWidth="1"/>
+    <col min="2" max="2" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -933,7 +1338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -947,7 +1352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>42</v>
       </c>
@@ -961,7 +1366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -975,7 +1380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -989,7 +1394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -1003,7 +1408,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -1017,7 +1422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1037,7 +1442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1045,14 +1450,14 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="2" width="58.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="58.25" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
@@ -1080,7 +1485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1094,7 +1499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1108,7 +1513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>40</v>
       </c>

--- a/src/test/resources/Locator.xlsx
+++ b/src/test/resources/Locator.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="WelcomeAty" sheetId="3" r:id="rId1"/>
     <sheet name="MainAty" sheetId="1" r:id="rId2"/>
     <sheet name="CityAty" sheetId="6" r:id="rId3"/>
-    <sheet name="UserHomeAty" sheetId="2" r:id="rId4"/>
-    <sheet name="LoginAty" sheetId="5" r:id="rId5"/>
+    <sheet name="CategoryAty" sheetId="7" r:id="rId4"/>
+    <sheet name="UserHomeAty" sheetId="2" r:id="rId5"/>
+    <sheet name="LoginAty" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="94">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -231,101 +232,155 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>com.android.benlailife.activity:id/ivNavigationBarLeft</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>离开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.benlailife.activity:id/site_choose_location_city</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>杭州</t>
+  </si>
+  <si>
+    <t>天津</t>
+  </si>
+  <si>
+    <t>苏州</t>
+  </si>
+  <si>
+    <t>无锡</t>
+  </si>
+  <si>
+    <t>佛山</t>
+  </si>
+  <si>
+    <t>东莞</t>
+  </si>
+  <si>
+    <t>宁波</t>
+  </si>
+  <si>
+    <t>最近访问城市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>//android.widget.LinearLayout[1]/android.widget.GridView[1]/android.widget.TextView</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>xpath</t>
-  </si>
-  <si>
-    <t>com.android.benlailife.activity:id/ivNavigationBarLeft</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>离开</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.android.benlailife.activity:id/site_choose_location_city</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.TextView[@text='北京']</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.TextView[@text='上海']</t>
-  </si>
-  <si>
-    <t>广州</t>
-  </si>
-  <si>
-    <t>//android.widget.TextView[@text='广州']</t>
-  </si>
-  <si>
-    <t>深圳</t>
-  </si>
-  <si>
-    <t>//android.widget.TextView[@text='深圳']</t>
-  </si>
-  <si>
-    <t>南京</t>
-  </si>
-  <si>
-    <t>//android.widget.TextView[@text='南京']</t>
-  </si>
-  <si>
-    <t>杭州</t>
-  </si>
-  <si>
-    <t>//android.widget.TextView[@text='杭州']</t>
-  </si>
-  <si>
-    <t>天津</t>
-  </si>
-  <si>
-    <t>//android.widget.TextView[@text='天津']</t>
-  </si>
-  <si>
-    <t>苏州</t>
-  </si>
-  <si>
-    <t>//android.widget.TextView[@text='苏州']</t>
-  </si>
-  <si>
-    <t>无锡</t>
-  </si>
-  <si>
-    <t>//android.widget.TextView[@text='无锡']</t>
-  </si>
-  <si>
-    <t>佛山</t>
-  </si>
-  <si>
-    <t>//android.widget.TextView[@text='佛山']</t>
-  </si>
-  <si>
-    <t>东莞</t>
-  </si>
-  <si>
-    <t>//android.widget.TextView[@text='东莞']</t>
-  </si>
-  <si>
-    <t>宁波</t>
-  </si>
-  <si>
-    <t>//android.widget.TextView[@text='宁波']</t>
-  </si>
-  <si>
-    <t>最近访问城市</t>
+    <t>//android.widget.GridView[1]/android.widget.TextView[@text='北京']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.GridView[1]/android.widget.TextView[@text='上海']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.GridView[1]/android.widget.TextView[@text='广州']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.GridView[1]/android.widget.TextView[@text='深圳']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.GridView[1]/android.widget.TextView[@text='南京']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.GridView[1]/android.widget.TextView[@text='杭州']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.GridView[1]/android.widget.TextView[@text='天津']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.GridView[1]/android.widget.TextView[@text='苏州']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.GridView[1]/android.widget.TextView[@text='无锡']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.GridView[1]/android.widget.TextView[@text='佛山']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.GridView[1]/android.widget.TextView[@text='东莞']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.GridView[1]/android.widget.TextView[@text='宁波']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.benlailife.activity:id/tvCity</t>
+  </si>
+  <si>
+    <t>//android.widget.ImageButton[@index='0']</t>
+  </si>
+  <si>
+    <t>//android.widget.ImageButton[@index='1']</t>
+  </si>
+  <si>
+    <t>//android.widget.ImageButton[@index='2']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.ImageButton[@index='3']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.ImageButton[@index='4']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='镇店之宝']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='水果']</t>
+  </si>
+  <si>
+    <t>小类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇店之宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.LinearLayout[0]/android.widget.GridView[1]/android.widget.LinearLayout</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -429,7 +484,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -462,6 +517,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -762,7 +820,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A4" sqref="A4:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1040,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1068,10 +1126,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="3">
         <v>3</v>
@@ -1113,7 +1171,7 @@
         <v>51</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
@@ -1124,184 +1182,184 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C7" s="3">
         <v>3</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C8" s="3">
         <v>3</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C11" s="3">
         <v>3</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C12" s="3">
         <v>3</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1312,6 +1370,209 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="90.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="4">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -1442,7 +1703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>

--- a/src/test/resources/Locator.xlsx
+++ b/src/test/resources/Locator.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="WelcomeAty" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="101">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -193,194 +193,221 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>水产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.benlailife.activity:id/img_tab_center</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前城市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.benlailife.activity:id/tvNavigationBarTitle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索城市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.benlailife.activity:id/site_search_edt</t>
+  </si>
+  <si>
+    <t>定位城市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>com.android.benlailife.activity:id/ivNavigationBarLeft</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>离开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.benlailife.activity:id/site_choose_location_city</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>杭州</t>
+  </si>
+  <si>
+    <t>天津</t>
+  </si>
+  <si>
+    <t>苏州</t>
+  </si>
+  <si>
+    <t>无锡</t>
+  </si>
+  <si>
+    <t>佛山</t>
+  </si>
+  <si>
+    <t>东莞</t>
+  </si>
+  <si>
+    <t>宁波</t>
+  </si>
+  <si>
+    <t>最近访问城市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.LinearLayout[1]/android.widget.GridView[1]/android.widget.TextView</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.GridView[1]/android.widget.TextView[@text='北京']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.GridView[1]/android.widget.TextView[@text='上海']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.GridView[1]/android.widget.TextView[@text='广州']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.GridView[1]/android.widget.TextView[@text='深圳']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.GridView[1]/android.widget.TextView[@text='南京']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.GridView[1]/android.widget.TextView[@text='杭州']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.GridView[1]/android.widget.TextView[@text='天津']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.GridView[1]/android.widget.TextView[@text='苏州']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.GridView[1]/android.widget.TextView[@text='无锡']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.GridView[1]/android.widget.TextView[@text='佛山']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.GridView[1]/android.widget.TextView[@text='东莞']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.GridView[1]/android.widget.TextView[@text='宁波']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.benlailife.activity:id/tvCity</t>
+  </si>
+  <si>
+    <t>//android.widget.ImageButton[@index='0']</t>
+  </si>
+  <si>
+    <t>//android.widget.ImageButton[@index='1']</t>
+  </si>
+  <si>
+    <t>//android.widget.ImageButton[@index='2']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.ImageButton[@index='3']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.ImageButton[@index='4']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='镇店之宝']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='水果']</t>
+  </si>
+  <si>
+    <t>小类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇店之宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.LinearLayout[0]/android.widget.GridView[1]/android.widget.LinearLayout</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.benlailife.activity:id/tvCenterCity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击切站</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击切站</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.benlailife.activity:id/center_user_pic</t>
+  </si>
+  <si>
+    <t>个人头像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.benlailife.activity:id/tvCenterSetting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>设置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>com.android.benlailife.activity:id/tvCenterSetting</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水产</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.android.benlailife.activity:id/img_tab_center</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前城市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.android.benlailife.activity:id/tvNavigationBarTitle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索城市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.android.benlailife.activity:id/site_search_edt</t>
-  </si>
-  <si>
-    <t>定位城市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath</t>
-  </si>
-  <si>
-    <t>com.android.benlailife.activity:id/ivNavigationBarLeft</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>离开</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.android.benlailife.activity:id/site_choose_location_city</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州</t>
-  </si>
-  <si>
-    <t>深圳</t>
-  </si>
-  <si>
-    <t>南京</t>
-  </si>
-  <si>
-    <t>杭州</t>
-  </si>
-  <si>
-    <t>天津</t>
-  </si>
-  <si>
-    <t>苏州</t>
-  </si>
-  <si>
-    <t>无锡</t>
-  </si>
-  <si>
-    <t>佛山</t>
-  </si>
-  <si>
-    <t>东莞</t>
-  </si>
-  <si>
-    <t>宁波</t>
-  </si>
-  <si>
-    <t>最近访问城市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.LinearLayout[1]/android.widget.GridView[1]/android.widget.TextView</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.GridView[1]/android.widget.TextView[@text='北京']</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.GridView[1]/android.widget.TextView[@text='上海']</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.GridView[1]/android.widget.TextView[@text='广州']</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.GridView[1]/android.widget.TextView[@text='深圳']</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.GridView[1]/android.widget.TextView[@text='南京']</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.GridView[1]/android.widget.TextView[@text='杭州']</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.GridView[1]/android.widget.TextView[@text='天津']</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.GridView[1]/android.widget.TextView[@text='苏州']</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.GridView[1]/android.widget.TextView[@text='无锡']</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.GridView[1]/android.widget.TextView[@text='佛山']</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.GridView[1]/android.widget.TextView[@text='东莞']</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.GridView[1]/android.widget.TextView[@text='宁波']</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.android.benlailife.activity:id/tvCity</t>
-  </si>
-  <si>
-    <t>//android.widget.ImageButton[@index='0']</t>
-  </si>
-  <si>
-    <t>//android.widget.ImageButton[@index='1']</t>
-  </si>
-  <si>
-    <t>//android.widget.ImageButton[@index='2']</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.ImageButton[@index='3']</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.ImageButton[@index='4']</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.TextView[@text='镇店之宝']</t>
-  </si>
-  <si>
-    <t>//android.widget.TextView[@text='水果']</t>
-  </si>
-  <si>
-    <t>小类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>镇店之宝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.LinearLayout[0]/android.widget.GridView[1]/android.widget.LinearLayout</t>
+    <t>昵称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.android.benlailife.activity:id/center_nickname</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +481,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -477,6 +504,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -484,7 +522,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -519,6 +557,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -820,7 +861,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -945,7 +986,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>27</v>
@@ -1001,7 +1042,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>35</v>
@@ -1015,10 +1056,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="4">
         <v>3</v>
@@ -1126,10 +1167,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="3">
         <v>3</v>
@@ -1140,10 +1181,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="3">
         <v>3</v>
@@ -1154,10 +1195,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -1168,10 +1209,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
@@ -1182,184 +1223,184 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C7" s="3">
         <v>3</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C8" s="3">
         <v>3</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11" s="3">
         <v>3</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C12" s="3">
         <v>3</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1373,7 +1414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1402,7 +1443,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" s="4">
         <v>3</v>
@@ -1458,13 +1499,13 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C6" s="4">
         <v>3</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -1472,13 +1513,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -1486,13 +1527,13 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C8" s="4">
         <v>3</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -1500,13 +1541,13 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" s="4">
         <v>3</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -1514,55 +1555,55 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C11" s="4">
         <v>3</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C12" s="4">
         <v>3</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1574,10 +1615,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1607,46 +1648,46 @@
         <v>37</v>
       </c>
       <c r="C2" s="4">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="C3" s="4">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4">
         <v>3</v>
@@ -1657,10 +1698,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4">
         <v>3</v>
@@ -1671,10 +1712,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
@@ -1684,22 +1725,65 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="4">
-        <v>3</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="B9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="4">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1708,7 +1792,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
